--- a/VerveStacks_FIN_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_FIN_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FIN_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34225F11-FE0A-4058-8C33-19A386D0143D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FEE5710-6485-40E5-A9FA-07B977E82C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{1077988B-C47F-4E78-A0DD-9B4475DE984F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{08BFB0C2-DBA8-4E33-9C89-69873C8D25E3}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1164,7 +1164,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D062B7CF-7500-EE36-A21F-B3997E55CD7D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C15A0695-66DC-FB5B-91A1-F8A5EF1F99D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1515,7 +1515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A7F5E5-BB96-439F-B545-D7E568CECBEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{703A35E8-9E0C-4F67-A7D1-38DC63C4FB39}">
   <dimension ref="A1:L126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_FIN_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_FIN_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FIN_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FEE5710-6485-40E5-A9FA-07B977E82C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98E85A22-9064-4A02-994F-5AB02FDE14C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{08BFB0C2-DBA8-4E33-9C89-69873C8D25E3}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{FAFDCA49-9A8E-4CA3-90C0-47BD23C41743}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1164,7 +1164,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C15A0695-66DC-FB5B-91A1-F8A5EF1F99D0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6503696D-5BDF-F32B-9FD7-3D24F66937DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1515,7 +1515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{703A35E8-9E0C-4F67-A7D1-38DC63C4FB39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E26FEF2E-1F65-4354-9E7C-18B8E3C96007}">
   <dimension ref="A1:L126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_FIN_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_FIN_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FIN_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98E85A22-9064-4A02-994F-5AB02FDE14C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45F09733-BC96-458F-9D05-4B1AB4170D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{FAFDCA49-9A8E-4CA3-90C0-47BD23C41743}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{C0AF8D5D-AFE9-46B5-B668-2B0AA5141A92}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1164,7 +1164,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6503696D-5BDF-F32B-9FD7-3D24F66937DE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{644F48EB-A6D7-4E7B-411D-B688D5155AB6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1515,7 +1515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E26FEF2E-1F65-4354-9E7C-18B8E3C96007}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CFFB2B5-50AD-499C-99A3-6FEC07268906}">
   <dimension ref="A1:L126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_FIN_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_FIN_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FIN_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45F09733-BC96-458F-9D05-4B1AB4170D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C167622-A1FA-4193-A02E-19DABA6BDFFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{C0AF8D5D-AFE9-46B5-B668-2B0AA5141A92}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{CC9A2CF0-1D08-474F-9110-FB641BAE996C}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1164,7 +1164,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{644F48EB-A6D7-4E7B-411D-B688D5155AB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0658FDB3-BFAF-5E11-C5D4-3263B4E7466A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1515,7 +1515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CFFB2B5-50AD-499C-99A3-6FEC07268906}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A09AF88-E3F6-4FDB-B7FB-4362475E5C67}">
   <dimension ref="A1:L126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_FIN_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_FIN_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FIN_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C167622-A1FA-4193-A02E-19DABA6BDFFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98E98FF8-4796-43D9-BD9F-4647A5F88741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{CC9A2CF0-1D08-474F-9110-FB641BAE996C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{6B5636EB-C7A8-4F97-95A6-1D4799B1731E}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1164,7 +1164,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0658FDB3-BFAF-5E11-C5D4-3263B4E7466A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8E118F4-35B9-82B5-64C1-25905DCF95E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1515,7 +1515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A09AF88-E3F6-4FDB-B7FB-4362475E5C67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468F683A-E05C-4365-A85A-49E00E45780D}">
   <dimension ref="A1:L126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
